--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W20_H100_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4786585365853658</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1487258829149733</v>
+        <v>0.1940692812434123</v>
       </c>
       <c r="J2" t="n">
-        <v>1988.827152773404</v>
+        <v>2616.114718166954</v>
       </c>
       <c r="K2" t="n">
-        <v>5571800.35557282</v>
+        <v>9564346.433065694</v>
       </c>
       <c r="L2" t="n">
-        <v>2360.466130994643</v>
+        <v>3092.627755334562</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.05106916646544613</v>
+        <v>-0.8042264603279428</v>
       </c>
     </row>
   </sheetData>
